--- a/bang/DanhSachSanPham.xlsx
+++ b/bang/DanhSachSanPham.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="54">
   <si>
     <t>MÃ</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>128GB</t>
-  </si>
-  <si>
-    <t>Dell G15</t>
   </si>
 </sst>
 </file>
@@ -221,7 +218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -867,38 +864,6 @@
         <v>24.0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="C21" t="n" s="0">
-        <v>2.8E7</v>
-      </c>
-      <c r="D21" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F21" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="G21" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="H21" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="I21" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n" s="0">
-        <v>36.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
